--- a/xlsx/a69_f45UPPachuca.xlsx
+++ b/xlsx/a69_f45UPPachuca.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Desktop\Corrección 1VoBo UPPachuca\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lisbet\Documents\Dirección de Planeción\2021\SIPOT\UPP Solventación 1er Trimestre 21\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735"/>
   </bookViews>
   <sheets>
     <sheet name="Reporte de Formatos" sheetId="1" r:id="rId1"/>
@@ -17,14 +17,14 @@
     <sheet name="Tabla_379156" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="Hidden_13">Hidden_1!$A$1:$A$3</definedName>
+    <definedName name="Hidden_13">Hidden_1!$A$1:$A$10</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="65">
   <si>
     <t>45771</t>
   </si>
@@ -38,13 +38,13 @@
     <t>DESCRIPCIÓN</t>
   </si>
   <si>
-    <t>Catálogo de disposición documental y guía simple de archivos</t>
+    <t>2021. Instrumentos archivísticos 2018-2020. Catálogo de disposición documental y guía simple de archivos.</t>
   </si>
   <si>
     <t>a69_f45</t>
   </si>
   <si>
-    <t>Se publicarán los instrumentos de control y consulta archivística que le permitan organizar, administrar, conservar y localizar de manera expedita sus archivos</t>
+    <t>Se publicarán los siguientes instrumentos de control y consulta archivística: Cuadro general de clasificación archivística, Catálogo de disposición documental, Inventarios documentales, Guía de archivo documental, Índice de expedientes clasificados como reservados, Programa Anual de Desarrollo Archivístico, Informe Anual de cumplimiento, Dictamen y acta de baja documental y transferencia secundaria u otros</t>
   </si>
   <si>
     <t>1</t>
@@ -80,7 +80,7 @@
     <t>379161</t>
   </si>
   <si>
-    <t>379155</t>
+    <t>561984</t>
   </si>
   <si>
     <t>379154</t>
@@ -138,7 +138,28 @@
     <t>Catálogo de disposición documental</t>
   </si>
   <si>
-    <t>Guía Simple de archivos</t>
+    <t xml:space="preserve">Cuadro general de clasificación archivística </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dictamen y acta de baja documental y transferencia secundaria </t>
+  </si>
+  <si>
+    <t>Guía de archivo documental</t>
+  </si>
+  <si>
+    <t>Guía simple de archivos</t>
+  </si>
+  <si>
+    <t>Índice de expedientes clasificados como reservados</t>
+  </si>
+  <si>
+    <t>Informe anual de cumplimiento</t>
+  </si>
+  <si>
+    <t>Inventarios documentales</t>
+  </si>
+  <si>
+    <t>Programa Anual de Desarrollo Archivístico</t>
   </si>
   <si>
     <t>Otros</t>
@@ -177,41 +198,35 @@
     <t>Cargo</t>
   </si>
   <si>
-    <t>https://drive.google.com/file/d/1zsz3En4Ke7EoYcBFqe5mvubr8ausik4p/view?usp=sharing</t>
+    <t>Juan Manuel</t>
+  </si>
+  <si>
+    <t>Montes</t>
+  </si>
+  <si>
+    <t>Monroy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Director </t>
+  </si>
+  <si>
+    <t>Director de Planeación</t>
+  </si>
+  <si>
+    <t>El último catálogo validado es el reportado en el presente formato.</t>
   </si>
   <si>
     <t>Dirección de Planeación (UPP)</t>
   </si>
   <si>
-    <t>Montes</t>
-  </si>
-  <si>
-    <t>Juan Manuel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Monroy </t>
-  </si>
-  <si>
-    <t>Encargado de Despacho de la Dirección de Planeación</t>
-  </si>
-  <si>
-    <t>Enlace Normativo de Archivo</t>
-  </si>
-  <si>
-    <t>El ultimo catalogo validado es el reportado en el presente formato.</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1SDz8MVHbunugAKmkV4a294tLIRPkrNCh/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>La ultima guía validada es del ejercicio 2009.</t>
+    <t>Está en fase de elaboración y validación</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -231,14 +246,6 @@
       <color indexed="8"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -283,11 +290,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -296,25 +302,14 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+      <alignment horizontal="justify"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -328,8 +323,7 @@
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -356,39 +350,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="1F497D"/>
+        <a:srgbClr val="44546A"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="EEECE1"/>
+        <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4F81BD"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="C0504D"/>
+        <a:srgbClr val="ED7D31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="9BBB59"/>
+        <a:srgbClr val="A5A5A5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="8064A2"/>
+        <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4BACC6"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="F79646"/>
+        <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0000FF"/>
+        <a:srgbClr val="0563C1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="800080"/>
+        <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -467,166 +461,142 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="35000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="80000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
+                <a:alpha val="63000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="40000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
 </a:theme>
 </file>
 
@@ -634,22 +604,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" topLeftCell="G2" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29" customWidth="1"/>
-    <col min="3" max="3" width="28.42578125" customWidth="1"/>
-    <col min="4" max="4" width="57.7109375" customWidth="1"/>
-    <col min="5" max="5" width="98.5703125" customWidth="1"/>
-    <col min="6" max="6" width="69" customWidth="1"/>
-    <col min="7" max="7" width="58" customWidth="1"/>
+    <col min="2" max="2" width="36.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="38.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.5703125" customWidth="1"/>
+    <col min="5" max="5" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="66.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="73.140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="20" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="31.85546875" customWidth="1"/>
+    <col min="10" max="10" width="62" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
@@ -658,38 +628,38 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="10" t="s">
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="10" t="s">
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
-    </row>
-    <row r="3" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+    </row>
+    <row r="3" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="12" t="s">
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="13" t="s">
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
     </row>
     <row r="4" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -756,18 +726,18 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="11"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="11"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
     </row>
     <row r="7" spans="1:10" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
@@ -801,68 +771,64 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="5">
-        <v>2020</v>
-      </c>
-      <c r="B8" s="6">
-        <v>43831</v>
-      </c>
-      <c r="C8" s="6">
-        <v>44196</v>
-      </c>
-      <c r="D8" s="5" t="s">
+    <row r="8" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>2021</v>
+      </c>
+      <c r="B8" s="4">
+        <v>44197</v>
+      </c>
+      <c r="C8" s="4">
+        <v>44561</v>
+      </c>
+      <c r="D8" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="E8" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="F8" s="5">
+      <c r="E8" s="3"/>
+      <c r="F8" s="3">
         <v>1</v>
       </c>
-      <c r="G8" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="H8" s="6">
-        <v>43961</v>
-      </c>
-      <c r="I8" s="6">
-        <v>43961</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="5">
-        <v>2020</v>
-      </c>
-      <c r="B9" s="6">
-        <v>43831</v>
-      </c>
-      <c r="C9" s="6">
-        <v>44196</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="F9" s="4">
+      <c r="G8" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="H8" s="4">
+        <v>44298</v>
+      </c>
+      <c r="I8" s="4">
+        <v>44298</v>
+      </c>
+      <c r="J8" s="6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>2021</v>
+      </c>
+      <c r="B9" s="4">
+        <v>44197</v>
+      </c>
+      <c r="C9" s="4">
+        <v>44561</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E9" s="5"/>
+      <c r="F9" s="3">
         <v>1</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="H9" s="6">
-        <v>43961</v>
-      </c>
-      <c r="I9" s="6">
-        <v>43961</v>
-      </c>
-      <c r="J9" s="9" t="s">
-        <v>59</v>
+        <v>63</v>
+      </c>
+      <c r="H9" s="4">
+        <v>44298</v>
+      </c>
+      <c r="I9" s="4">
+        <v>44298</v>
+      </c>
+      <c r="J9" s="6" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -876,22 +842,18 @@
     <mergeCell ref="G3:I3"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D8:D58">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D8:D201">
       <formula1>Hidden_13</formula1>
     </dataValidation>
   </dataValidations>
-  <hyperlinks>
-    <hyperlink ref="E8" r:id="rId1"/>
-    <hyperlink ref="E9" r:id="rId2"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:A10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -912,6 +874,41 @@
         <v>38</v>
       </c>
     </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>45</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -919,10 +916,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -931,8 +928,8 @@
     <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.140625" customWidth="1"/>
-    <col min="6" max="6" width="19.28515625" customWidth="1"/>
+    <col min="5" max="5" width="10.85546875" customWidth="1"/>
+    <col min="6" max="6" width="26.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -954,63 +951,82 @@
     </row>
     <row r="2" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="C2" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="D2" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="E2" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="F2" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="78" customHeight="1" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>1</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>55</v>
+        <v>59</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="5">
+        <v>1</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/xlsx/a69_f45UPPachuca.xlsx
+++ b/xlsx/a69_f45UPPachuca.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lisbet\Documents\Dirección de Planeción\2021\SIPOT\UPP Solventación 1er Trimestre 21\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15600" windowHeight="7065"/>
   </bookViews>
   <sheets>
     <sheet name="Reporte de Formatos" sheetId="1" r:id="rId1"/>
@@ -19,12 +14,12 @@
   <definedNames>
     <definedName name="Hidden_13">Hidden_1!$A$1:$A$10</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="71">
   <si>
     <t>45771</t>
   </si>
@@ -138,10 +133,10 @@
     <t>Catálogo de disposición documental</t>
   </si>
   <si>
-    <t xml:space="preserve">Cuadro general de clasificación archivística </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dictamen y acta de baja documental y transferencia secundaria </t>
+    <t>Cuadro general de clasificación archivística</t>
+  </si>
+  <si>
+    <t>Dictamen y acta de baja documental y transferencia secundaria</t>
   </si>
   <si>
     <t>Guía de archivo documental</t>
@@ -198,6 +193,9 @@
     <t>Cargo</t>
   </si>
   <si>
+    <t>Dirección de Planeación (UPP)</t>
+  </si>
+  <si>
     <t>Juan Manuel</t>
   </si>
   <si>
@@ -207,7 +205,7 @@
     <t>Monroy</t>
   </si>
   <si>
-    <t xml:space="preserve">Director </t>
+    <t>Director</t>
   </si>
   <si>
     <t>Director de Planeación</t>
@@ -216,17 +214,32 @@
     <t>El último catálogo validado es el reportado en el presente formato.</t>
   </si>
   <si>
-    <t>Dirección de Planeación (UPP)</t>
-  </si>
-  <si>
-    <t>Está en fase de elaboración y validación</t>
+    <t>El último cuadro validado es el reportado en el presente formato.</t>
+  </si>
+  <si>
+    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2022/Enero-Marzo/f45/CATALOGO%20DE%20DISPOSICION%20DOCUMENTAL%202017.pdf</t>
+  </si>
+  <si>
+    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2022/Enero-Marzo/f45/GUIA%202010.pdf</t>
+  </si>
+  <si>
+    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2022/Enero-Marzo/f45/CUADRO%20DE%20CALSIFICACION%20ARCHIVISTICA.pdf</t>
+  </si>
+  <si>
+    <t>El último inventario validado es el reportado en el presente formato.</t>
+  </si>
+  <si>
+    <t>La última guía validada es la reportada en el presente formato.</t>
+  </si>
+  <si>
+    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2022/Enero-Marzo/f45/INVENTARIOS%202010.zip</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -247,6 +260,14 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -266,7 +287,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -289,11 +310,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -311,19 +342,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -594,7 +629,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -602,24 +637,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G2" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="36.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="38.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33.5703125" customWidth="1"/>
-    <col min="5" max="5" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="47.140625" customWidth="1"/>
+    <col min="4" max="4" width="42.28515625" customWidth="1"/>
+    <col min="5" max="5" width="82.140625" customWidth="1"/>
     <col min="6" max="6" width="66.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="73.140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="20" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="62" customWidth="1"/>
+    <col min="10" max="10" width="63.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
@@ -628,38 +663,38 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="7" t="s">
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="7" t="s">
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-    </row>
-    <row r="3" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+    </row>
+    <row r="3" spans="1:10" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="9" t="s">
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="10" t="s">
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
     </row>
     <row r="4" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -726,18 +761,18 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
     </row>
     <row r="7" spans="1:10" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
@@ -771,64 +806,132 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B8" s="4">
-        <v>44197</v>
+        <v>44562</v>
       </c>
       <c r="C8" s="4">
-        <v>44561</v>
+        <v>44926</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="E8" s="3"/>
+      <c r="E8" s="7" t="s">
+        <v>65</v>
+      </c>
       <c r="F8" s="3">
         <v>1</v>
       </c>
       <c r="G8" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="H8" s="4">
+        <v>44659</v>
+      </c>
+      <c r="I8" s="4">
+        <v>44659</v>
+      </c>
+      <c r="J8" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="H8" s="4">
-        <v>44298</v>
-      </c>
-      <c r="I8" s="4">
-        <v>44298</v>
-      </c>
-      <c r="J8" s="6" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B9" s="4">
-        <v>44197</v>
+        <v>44562</v>
       </c>
       <c r="C9" s="4">
-        <v>44561</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="E9" s="5"/>
+        <v>44926</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>67</v>
+      </c>
       <c r="F9" s="3">
         <v>1</v>
       </c>
-      <c r="G9" s="5" t="s">
-        <v>63</v>
+      <c r="G9" s="3" t="s">
+        <v>57</v>
       </c>
       <c r="H9" s="4">
-        <v>44298</v>
+        <v>44659</v>
       </c>
       <c r="I9" s="4">
-        <v>44298</v>
+        <v>44659</v>
       </c>
       <c r="J9" s="6" t="s">
         <v>64</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>2022</v>
+      </c>
+      <c r="B10" s="4">
+        <v>44562</v>
+      </c>
+      <c r="C10" s="4">
+        <v>44926</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="F10" s="3">
+        <v>1</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="H10" s="4">
+        <v>44659</v>
+      </c>
+      <c r="I10" s="4">
+        <v>44659</v>
+      </c>
+      <c r="J10" s="6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>2022</v>
+      </c>
+      <c r="B11" s="4">
+        <v>44562</v>
+      </c>
+      <c r="C11" s="4">
+        <v>44926</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="F11" s="3">
+        <v>1</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="H11" s="4">
+        <v>44659</v>
+      </c>
+      <c r="I11" s="4">
+        <v>44659</v>
+      </c>
+      <c r="J11" s="6" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -842,12 +945,18 @@
     <mergeCell ref="G3:I3"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D8:D201">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D8:D11">
       <formula1>Hidden_13</formula1>
     </dataValidation>
   </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="E8" r:id="rId1"/>
+    <hyperlink ref="E10" r:id="rId2"/>
+    <hyperlink ref="E9" r:id="rId3"/>
+    <hyperlink ref="E11" r:id="rId4"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>
 
@@ -916,20 +1025,20 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.85546875" customWidth="1"/>
-    <col min="6" max="6" width="26.7109375" customWidth="1"/>
+    <col min="2" max="2" width="20.140625" customWidth="1"/>
+    <col min="3" max="3" width="22.7109375" customWidth="1"/>
+    <col min="4" max="4" width="22.140625" customWidth="1"/>
+    <col min="5" max="5" width="18" customWidth="1"/>
+    <col min="6" max="6" width="27.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -987,43 +1096,23 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="5">
+      <c r="A4" s="3">
         <v>1</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="5">
-        <v>1</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/a69_f45UPPachuca.xlsx
+++ b/xlsx/a69_f45UPPachuca.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="72">
   <si>
     <t>45771</t>
   </si>
@@ -193,9 +193,6 @@
     <t>Cargo</t>
   </si>
   <si>
-    <t>Dirección de Planeación (UPP)</t>
-  </si>
-  <si>
     <t>Juan Manuel</t>
   </si>
   <si>
@@ -233,6 +230,12 @@
   </si>
   <si>
     <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2022/Enero-Marzo/f45/INVENTARIOS%202010.zip</t>
+  </si>
+  <si>
+    <t>Area de Archivo(UPP)</t>
+  </si>
+  <si>
+    <t>PADA</t>
   </si>
 </sst>
 </file>
@@ -637,10 +640,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C2"/>
+    <sheetView tabSelected="1" topLeftCell="G2" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -774,7 +777,7 @@
       <c r="I6" s="9"/>
       <c r="J6" s="9"/>
     </row>
-    <row r="7" spans="1:10" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" ht="39" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>26</v>
       </c>
@@ -808,131 +811,159 @@
     </row>
     <row r="8" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B8" s="4">
-        <v>44562</v>
+        <v>44927</v>
       </c>
       <c r="C8" s="4">
-        <v>44926</v>
+        <v>45291</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>36</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F8" s="3">
         <v>1</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="H8" s="4">
-        <v>44659</v>
+        <v>45026</v>
       </c>
       <c r="I8" s="4">
-        <v>44659</v>
+        <v>45026</v>
       </c>
       <c r="J8" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B9" s="4">
-        <v>44562</v>
+        <v>44927</v>
       </c>
       <c r="C9" s="4">
-        <v>44926</v>
+        <v>45291</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>37</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F9" s="3">
         <v>1</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="H9" s="4">
-        <v>44659</v>
+        <v>45026</v>
       </c>
       <c r="I9" s="4">
-        <v>44659</v>
+        <v>45026</v>
       </c>
       <c r="J9" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B10" s="4">
-        <v>44562</v>
+        <v>44927</v>
       </c>
       <c r="C10" s="4">
-        <v>44926</v>
+        <v>45291</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>39</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F10" s="3">
         <v>1</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="H10" s="4">
-        <v>44659</v>
+        <v>45026</v>
       </c>
       <c r="I10" s="4">
-        <v>44659</v>
+        <v>45026</v>
       </c>
       <c r="J10" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B11" s="4">
-        <v>44562</v>
+        <v>44927</v>
       </c>
       <c r="C11" s="4">
-        <v>44926</v>
+        <v>45291</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>43</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F11" s="3">
         <v>1</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="H11" s="4">
-        <v>44659</v>
+        <v>45026</v>
       </c>
       <c r="I11" s="4">
-        <v>44659</v>
+        <v>45026</v>
       </c>
       <c r="J11" s="6" t="s">
-        <v>68</v>
-      </c>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <v>2023</v>
+      </c>
+      <c r="B12" s="4">
+        <v>44927</v>
+      </c>
+      <c r="C12" s="4">
+        <v>45291</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="E12" s="5"/>
+      <c r="F12" s="3">
+        <v>1</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="H12" s="4">
+        <v>45026</v>
+      </c>
+      <c r="I12" s="4">
+        <v>45026</v>
+      </c>
+      <c r="J12" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -1100,19 +1131,19 @@
         <v>1</v>
       </c>
       <c r="B4" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="D4" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="E4" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="F4" s="5" t="s">
         <v>61</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>62</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/a69_f45UPPachuca.xlsx
+++ b/xlsx/a69_f45UPPachuca.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\sipot 1er tri 2023\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15600" windowHeight="7065"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="Reporte de Formatos" sheetId="1" r:id="rId1"/>
@@ -19,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="73">
   <si>
     <t>45771</t>
   </si>
@@ -236,6 +241,9 @@
   </si>
   <si>
     <t>PADA</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1C2XLscQJIqCnkN_XA0JZe_av5a1AJllm/view?usp=share_link</t>
   </si>
 </sst>
 </file>
@@ -327,7 +335,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -357,6 +365,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -632,7 +643,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -642,8 +653,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G2" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView tabSelected="1" topLeftCell="D2" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -652,7 +663,7 @@
     <col min="2" max="2" width="36.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="47.140625" customWidth="1"/>
     <col min="4" max="4" width="42.28515625" customWidth="1"/>
-    <col min="5" max="5" width="82.140625" customWidth="1"/>
+    <col min="5" max="5" width="86.5703125" customWidth="1"/>
     <col min="6" max="6" width="66.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="73.140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17.5703125" bestFit="1" customWidth="1"/>
@@ -777,7 +788,7 @@
       <c r="I6" s="9"/>
       <c r="J6" s="9"/>
     </row>
-    <row r="7" spans="1:10" ht="39" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>26</v>
       </c>
@@ -937,7 +948,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>2023</v>
       </c>
@@ -950,7 +961,9 @@
       <c r="D12" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="E12" s="5"/>
+      <c r="E12" s="13" t="s">
+        <v>72</v>
+      </c>
       <c r="F12" s="3">
         <v>1</v>
       </c>
@@ -985,9 +998,10 @@
     <hyperlink ref="E10" r:id="rId2"/>
     <hyperlink ref="E9" r:id="rId3"/>
     <hyperlink ref="E11" r:id="rId4"/>
+    <hyperlink ref="E12" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
 </worksheet>
 </file>
 

--- a/xlsx/a69_f45UPPachuca.xlsx
+++ b/xlsx/a69_f45UPPachuca.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\sipot 1er tri 2023\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15600" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="Reporte de Formatos" sheetId="1" r:id="rId1"/>
@@ -24,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="72">
   <si>
     <t>45771</t>
   </si>
@@ -240,10 +235,7 @@
     <t>Area de Archivo(UPP)</t>
   </si>
   <si>
-    <t>PADA</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1C2XLscQJIqCnkN_XA0JZe_av5a1AJllm/view?usp=share_link</t>
+    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2023/SIPOT/1er%20Trimestre/45/PADA%202023.pdf</t>
   </si>
 </sst>
 </file>
@@ -356,6 +348,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -365,9 +360,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -643,7 +635,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -653,8 +645,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D2" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" topLeftCell="C2" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -677,38 +669,38 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="8" t="s">
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="8" t="s">
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
     </row>
     <row r="3" spans="1:10" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="10" t="s">
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="11" t="s">
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
     </row>
     <row r="4" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -775,18 +767,18 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
     </row>
     <row r="7" spans="1:10" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
@@ -958,11 +950,11 @@
       <c r="C12" s="4">
         <v>45291</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E12" s="8" t="s">
         <v>71</v>
-      </c>
-      <c r="E12" s="13" t="s">
-        <v>72</v>
       </c>
       <c r="F12" s="3">
         <v>1</v>
@@ -989,7 +981,7 @@
     <mergeCell ref="G3:I3"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D8:D11">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D8:D12">
       <formula1>Hidden_13</formula1>
     </dataValidation>
   </dataValidations>
@@ -1009,7 +1001,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A9:E9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>

--- a/xlsx/a69_f45UPPachuca.xlsx
+++ b/xlsx/a69_f45UPPachuca.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15600" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="60" windowWidth="15600" windowHeight="7695"/>
   </bookViews>
   <sheets>
     <sheet name="Reporte de Formatos" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="73">
   <si>
     <t>45771</t>
   </si>
@@ -235,7 +235,10 @@
     <t>Area de Archivo(UPP)</t>
   </si>
   <si>
-    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2023/SIPOT/1er%20Trimestre/45/PADA%202023.pdf</t>
+    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2023/SIPOT/1er%20Trimestre/45/f_45.zip</t>
+  </si>
+  <si>
+    <t>PADA 2022 y 2023</t>
   </si>
 </sst>
 </file>
@@ -645,8 +648,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C2" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:C3"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -655,7 +658,7 @@
     <col min="2" max="2" width="36.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="47.140625" customWidth="1"/>
     <col min="4" max="4" width="42.28515625" customWidth="1"/>
-    <col min="5" max="5" width="86.5703125" customWidth="1"/>
+    <col min="5" max="5" width="103.5703125" customWidth="1"/>
     <col min="6" max="6" width="66.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="73.140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17.5703125" bestFit="1" customWidth="1"/>
@@ -876,7 +879,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>2023</v>
       </c>
@@ -940,7 +943,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>2023</v>
       </c>
@@ -968,7 +971,9 @@
       <c r="I12" s="4">
         <v>45026</v>
       </c>
-      <c r="J12" s="5"/>
+      <c r="J12" s="5" t="s">
+        <v>72</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="7">
